--- a/Barnes/analysis-n-alpha-h-bigbox.xlsx
+++ b/Barnes/analysis-n-alpha-h-bigbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herbi\Documents\Uni\numerik\Barnes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B663213E-C4EE-42C4-AE48-85CC6215A09B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4014229D-374D-4EDA-B8B8-2336DBFEC62F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>number of particles [-]</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>Mittelwerte</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -304,25 +307,19 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,6 +330,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -672,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +691,7 @@
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -723,23 +730,23 @@
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="18">
+      <c r="K2" s="14">
         <v>0.75</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
       <c r="N2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="18">
+      <c r="Q2" s="14">
         <v>0.5</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="19"/>
-    </row>
-    <row r="3" spans="1:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="14"/>
+      <c r="S2" s="15"/>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -755,27 +762,30 @@
       <c r="E3">
         <v>3.6348599990630517E-2</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="20" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="22"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="20"/>
+      <c r="U3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -791,7 +801,7 @@
       <c r="E4">
         <v>1.0842199526187391E-2</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="3">
         <v>10</v>
       </c>
@@ -828,8 +838,15 @@
       <c r="S4" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U4" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="V4" s="24">
+        <f>AVERAGE(H5:M6)</f>
+        <v>4.2033826921731604E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -896,8 +913,15 @@
         <f t="array" ref="S5">VLOOKUP($Q$2&amp;S$4&amp;$G5,CHOOSE({1,2,3},$B:$B&amp;$A:$A&amp;$C:$C,$E:$E),2,0)</f>
         <v>2.383060007246713E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>0.5</v>
+      </c>
+      <c r="V5" s="24">
+        <f>AVERAGE(N5:S6)</f>
+        <v>1.5761473305990495E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -964,8 +988,15 @@
         <f t="array" ref="S6">VLOOKUP($Q$2&amp;S$4&amp;$G6,CHOOSE({1,2,3},$B:$B&amp;$A:$A&amp;$C:$C,$E:$E),2,0)</f>
         <v>1.7259053235514549E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>0.25</v>
+      </c>
+      <c r="V6" s="24">
+        <f>AVERAGE(H11:M12)</f>
+        <v>3.2980728727435384E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -994,8 +1025,15 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U7">
+        <v>0.125</v>
+      </c>
+      <c r="V7" s="24">
+        <f>AVERAGE(N11:S12)</f>
+        <v>8.6224419513552901E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -1017,23 +1055,23 @@
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="18">
+      <c r="K8" s="14">
         <v>0.25</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="16" t="s">
         <v>5</v>
       </c>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
-      <c r="Q8" s="18">
+      <c r="Q8" s="14">
         <v>0.125</v>
       </c>
-      <c r="R8" s="18"/>
-      <c r="S8" s="19"/>
-    </row>
-    <row r="9" spans="1:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="14"/>
+      <c r="S8" s="15"/>
+    </row>
+    <row r="9" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1049,27 +1087,27 @@
       <c r="E9">
         <v>2.2864359253242292E-16</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="20" t="s">
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="22"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="20"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>100</v>
       </c>
@@ -1085,7 +1123,7 @@
       <c r="E10">
         <v>3.1428824103216131E-2</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="3">
         <v>10</v>
       </c>
@@ -1123,7 +1161,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
@@ -1191,7 +1229,7 @@
         <v>4.5180711197129516E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -1259,7 +1297,7 @@
         <v>7.8246790307608994E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>100</v>
       </c>
@@ -1276,7 +1314,7 @@
         <v>1.7077406584905891E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>100</v>
       </c>
@@ -1293,7 +1331,7 @@
         <v>2.5555117260122398E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>100</v>
       </c>
@@ -1310,7 +1348,7 @@
         <v>1.9035730218535569E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>100</v>
       </c>
@@ -1360,14 +1398,14 @@
       <c r="E18">
         <v>4.1530326114498937E-2</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1385,14 +1423,14 @@
       <c r="E19">
         <v>3.787735037326697E-2</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1410,14 +1448,14 @@
       <c r="E20">
         <v>1.5832378230133271E-2</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1435,14 +1473,14 @@
       <c r="E21">
         <v>1.271972101994452E-2</v>
       </c>
-      <c r="G21" s="14"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="14"/>
+      <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1460,14 +1498,14 @@
       <c r="E22">
         <v>2.8853474963406421E-3</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1485,14 +1523,14 @@
       <c r="E23">
         <v>2.6485736895137122E-3</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1510,14 +1548,14 @@
       <c r="E24">
         <v>6.0068096810907763E-4</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1946,17 +1984,17 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="H3:M3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="G9:G10"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
